--- a/biology/Botanique/Septoria_tritici/Septoria_tritici.xlsx
+++ b/biology/Botanique/Septoria_tritici/Septoria_tritici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycosphaerella graminicola ou Zymoseptoria tritici est une espèce de champignons ascomycètes parasites de la famille des Mycosphaerellaceae. Cette espèce cosmopolite est la cause d'une des principales maladies du blé : la septoriose ; maladie qui peut également être provoquée par Phaeosphaeria nodorum.
 Son anamorphe est Septoria tritici.
@@ -512,10 +524,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Septoria tritici: Les conidies sont allongées, hyalines et septées (trois à sept cellules par conidie). Elles mesurent  1,7–3,4 × 39–86 μm. Elles sont formées dans des pycnides. Elles sont excrétées par temps humide dans des cirrhe blanches[1].
-Mycosphaerella graminicola: Les périthèces brun-sombre mesurent 68–114 μm. Les asques renferment 8 ascospores et mesurent 11–14 × 30–40 μm. Les ascospores sont hyalines, elliptiques et mesurent 2,5–4 × 9–16 μm. Elles sont constituées de deux cellules inégales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Septoria tritici: Les conidies sont allongées, hyalines et septées (trois à sept cellules par conidie). Elles mesurent  1,7–3,4 × 39–86 μm. Elles sont formées dans des pycnides. Elles sont excrétées par temps humide dans des cirrhe blanches.
+Mycosphaerella graminicola: Les périthèces brun-sombre mesurent 68–114 μm. Les asques renferment 8 ascospores et mesurent 11–14 × 30–40 μm. Les ascospores sont hyalines, elliptiques et mesurent 2,5–4 × 9–16 μm. Elles sont constituées de deux cellules inégales.
 </t>
         </is>
       </c>
